--- a/data/src/Metadata_updated.xlsx
+++ b/data/src/Metadata_updated.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mehwishnoureen/Work/Postdoc_UT/UT_Work/PCPG_Project2/Web/All_samples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5672037B-B1FA-B84A-A80A-E7A5C716B995}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7622B435-4422-4340-85A5-936DA55147CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16140" xr2:uid="{7BBE9F06-7E19-40CC-92E1-6A7A79E57FBB}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2062" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2062" uniqueCount="336">
   <si>
     <t>Sample_ID</t>
   </si>
@@ -351,33 +351,6 @@
     <t>scRNA-seq</t>
   </si>
   <si>
-    <t>CSDE1_s</t>
-  </si>
-  <si>
-    <t>VHL_g</t>
-  </si>
-  <si>
-    <t>EPAS1_s</t>
-  </si>
-  <si>
-    <t>SDHD_g</t>
-  </si>
-  <si>
-    <t>SDHB_g</t>
-  </si>
-  <si>
-    <t>NF1_s</t>
-  </si>
-  <si>
-    <t>SDHB_s</t>
-  </si>
-  <si>
-    <t>TMEM127_g</t>
-  </si>
-  <si>
-    <t>RET_g</t>
-  </si>
-  <si>
     <t>RET fusion</t>
   </si>
   <si>
@@ -1006,48 +979,6 @@
   </si>
   <si>
     <t>NGFR fusion</t>
-  </si>
-  <si>
-    <t>NF1_g</t>
-  </si>
-  <si>
-    <t>MAX_g</t>
-  </si>
-  <si>
-    <t>SETD2_g</t>
-  </si>
-  <si>
-    <t>EGLN1_g</t>
-  </si>
-  <si>
-    <t>HRAS_s</t>
-  </si>
-  <si>
-    <t>TP53_s</t>
-  </si>
-  <si>
-    <t>VHL_s</t>
-  </si>
-  <si>
-    <t>ATRX_s</t>
-  </si>
-  <si>
-    <t>FGFR1_s</t>
-  </si>
-  <si>
-    <t>RET_s</t>
-  </si>
-  <si>
-    <t>SETD2_s</t>
-  </si>
-  <si>
-    <t>MAML3 fusion_s</t>
-  </si>
-  <si>
-    <t>BRAF_s</t>
-  </si>
-  <si>
-    <t>IDH1_s</t>
   </si>
   <si>
     <t>Genotype_color</t>
@@ -1117,10 +1048,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1464,8 +1401,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9A461BD-65D6-4348-B12A-81814D419BCF}">
   <dimension ref="A1:H267"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="H56" sqref="H56"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1473,8 +1410,8 @@
     <col min="1" max="1" width="19.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.83203125" customWidth="1"/>
     <col min="3" max="3" width="16.1640625" customWidth="1"/>
-    <col min="4" max="4" width="8.33203125" customWidth="1"/>
-    <col min="5" max="5" width="10.5" customWidth="1"/>
+    <col min="4" max="4" width="11.83203125" customWidth="1"/>
+    <col min="5" max="5" width="13.1640625" customWidth="1"/>
     <col min="6" max="6" width="14.5" customWidth="1"/>
     <col min="7" max="7" width="15.83203125" customWidth="1"/>
     <col min="8" max="8" width="21.6640625" customWidth="1"/>
@@ -1485,7 +1422,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="C1" t="s">
         <v>78</v>
@@ -1500,10 +1437,10 @@
         <v>101</v>
       </c>
       <c r="G1" t="s">
-        <v>338</v>
+        <v>315</v>
       </c>
       <c r="H1" t="s">
-        <v>339</v>
+        <v>316</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -1511,7 +1448,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="C2" t="s">
         <v>79</v>
@@ -1526,10 +1463,10 @@
         <v>102</v>
       </c>
       <c r="G2" t="s">
-        <v>105</v>
+        <v>79</v>
       </c>
       <c r="H2" t="s">
-        <v>340</v>
+        <v>317</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -1537,7 +1474,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="C3" t="s">
         <v>79</v>
@@ -1552,10 +1489,10 @@
         <v>102</v>
       </c>
       <c r="G3" t="s">
-        <v>105</v>
+        <v>79</v>
       </c>
       <c r="H3" t="s">
-        <v>340</v>
+        <v>317</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -1563,7 +1500,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="C4" t="s">
         <v>79</v>
@@ -1578,10 +1515,10 @@
         <v>102</v>
       </c>
       <c r="G4" t="s">
-        <v>105</v>
+        <v>79</v>
       </c>
       <c r="H4" t="s">
-        <v>341</v>
+        <v>318</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -1589,7 +1526,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="C5" t="s">
         <v>80</v>
@@ -1604,10 +1541,10 @@
         <v>102</v>
       </c>
       <c r="G5" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="H5" t="s">
-        <v>341</v>
+        <v>318</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -1615,7 +1552,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="C6" t="s">
         <v>81</v>
@@ -1630,10 +1567,10 @@
         <v>102</v>
       </c>
       <c r="G6" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="H6" t="s">
-        <v>340</v>
+        <v>317</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -1641,7 +1578,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="C7" t="s">
         <v>81</v>
@@ -1656,10 +1593,10 @@
         <v>102</v>
       </c>
       <c r="G7" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="H7" t="s">
-        <v>340</v>
+        <v>317</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -1667,7 +1604,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="C8" t="s">
         <v>82</v>
@@ -1685,7 +1622,7 @@
         <v>82</v>
       </c>
       <c r="H8" t="s">
-        <v>340</v>
+        <v>317</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -1693,7 +1630,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="C9" t="s">
         <v>83</v>
@@ -1711,7 +1648,7 @@
         <v>83</v>
       </c>
       <c r="H9" t="s">
-        <v>340</v>
+        <v>317</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -1719,7 +1656,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="C10" t="s">
         <v>83</v>
@@ -1737,7 +1674,7 @@
         <v>83</v>
       </c>
       <c r="H10" t="s">
-        <v>340</v>
+        <v>317</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -1745,7 +1682,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="C11" t="s">
         <v>84</v>
@@ -1760,10 +1697,10 @@
         <v>102</v>
       </c>
       <c r="G11" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="H11" t="s">
-        <v>340</v>
+        <v>317</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -1771,7 +1708,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="C12" t="s">
         <v>85</v>
@@ -1786,10 +1723,10 @@
         <v>102</v>
       </c>
       <c r="G12" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="H12" t="s">
-        <v>340</v>
+        <v>317</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -1797,7 +1734,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="C13" t="s">
         <v>85</v>
@@ -1812,10 +1749,10 @@
         <v>102</v>
       </c>
       <c r="G13" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="H13" t="s">
-        <v>340</v>
+        <v>317</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -1823,7 +1760,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="C14" t="s">
         <v>85</v>
@@ -1838,10 +1775,10 @@
         <v>102</v>
       </c>
       <c r="G14" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="H14" t="s">
-        <v>340</v>
+        <v>317</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -1849,7 +1786,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="C15" t="s">
         <v>86</v>
@@ -1864,10 +1801,10 @@
         <v>102</v>
       </c>
       <c r="G15" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="H15" t="s">
-        <v>340</v>
+        <v>317</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -1875,7 +1812,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="C16" t="s">
         <v>86</v>
@@ -1890,10 +1827,10 @@
         <v>102</v>
       </c>
       <c r="G16" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="H16" t="s">
-        <v>340</v>
+        <v>317</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
@@ -1901,7 +1838,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="C17" t="s">
         <v>86</v>
@@ -1916,10 +1853,10 @@
         <v>102</v>
       </c>
       <c r="G17" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="H17" t="s">
-        <v>340</v>
+        <v>317</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -1927,7 +1864,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="C18" t="s">
         <v>86</v>
@@ -1942,10 +1879,10 @@
         <v>102</v>
       </c>
       <c r="G18" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="H18" t="s">
-        <v>341</v>
+        <v>318</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -1953,7 +1890,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="C19" t="s">
         <v>87</v>
@@ -1971,7 +1908,7 @@
         <v>87</v>
       </c>
       <c r="H19" t="s">
-        <v>340</v>
+        <v>317</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
@@ -1979,7 +1916,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="C20" t="s">
         <v>87</v>
@@ -1997,7 +1934,7 @@
         <v>87</v>
       </c>
       <c r="H20" t="s">
-        <v>340</v>
+        <v>317</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
@@ -2005,7 +1942,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="C21" t="s">
         <v>87</v>
@@ -2023,7 +1960,7 @@
         <v>87</v>
       </c>
       <c r="H21" t="s">
-        <v>340</v>
+        <v>317</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
@@ -2031,7 +1968,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="C22" t="s">
         <v>87</v>
@@ -2049,7 +1986,7 @@
         <v>87</v>
       </c>
       <c r="H22" t="s">
-        <v>341</v>
+        <v>318</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
@@ -2057,7 +1994,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="C23" t="s">
         <v>85</v>
@@ -2072,10 +2009,10 @@
         <v>102</v>
       </c>
       <c r="G23" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="H23" t="s">
-        <v>340</v>
+        <v>317</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
@@ -2083,7 +2020,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="C24" t="s">
         <v>85</v>
@@ -2098,10 +2035,10 @@
         <v>102</v>
       </c>
       <c r="G24" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="H24" t="s">
-        <v>340</v>
+        <v>317</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
@@ -2109,7 +2046,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="C25" t="s">
         <v>85</v>
@@ -2124,10 +2061,10 @@
         <v>102</v>
       </c>
       <c r="G25" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="H25" t="s">
-        <v>340</v>
+        <v>317</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
@@ -2135,7 +2072,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="C26" t="s">
         <v>85</v>
@@ -2150,10 +2087,10 @@
         <v>102</v>
       </c>
       <c r="G26" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="H26" t="s">
-        <v>340</v>
+        <v>317</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
@@ -2161,7 +2098,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="C27" t="s">
         <v>87</v>
@@ -2179,7 +2116,7 @@
         <v>87</v>
       </c>
       <c r="H27" t="s">
-        <v>340</v>
+        <v>317</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
@@ -2187,7 +2124,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="C28" t="s">
         <v>87</v>
@@ -2205,7 +2142,7 @@
         <v>87</v>
       </c>
       <c r="H28" t="s">
-        <v>340</v>
+        <v>317</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
@@ -2213,7 +2150,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="C29" t="s">
         <v>87</v>
@@ -2231,7 +2168,7 @@
         <v>87</v>
       </c>
       <c r="H29" t="s">
-        <v>340</v>
+        <v>317</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
@@ -2239,7 +2176,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="C30" t="s">
         <v>87</v>
@@ -2257,7 +2194,7 @@
         <v>87</v>
       </c>
       <c r="H30" t="s">
-        <v>340</v>
+        <v>317</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
@@ -2265,7 +2202,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="C31" t="s">
         <v>87</v>
@@ -2283,7 +2220,7 @@
         <v>87</v>
       </c>
       <c r="H31" t="s">
-        <v>340</v>
+        <v>317</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
@@ -2291,7 +2228,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="C32" t="s">
         <v>87</v>
@@ -2309,7 +2246,7 @@
         <v>87</v>
       </c>
       <c r="H32" t="s">
-        <v>340</v>
+        <v>317</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
@@ -2317,7 +2254,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="C33" t="s">
         <v>87</v>
@@ -2335,7 +2272,7 @@
         <v>87</v>
       </c>
       <c r="H33" t="s">
-        <v>340</v>
+        <v>317</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
@@ -2343,7 +2280,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="C34" t="s">
         <v>87</v>
@@ -2361,7 +2298,7 @@
         <v>87</v>
       </c>
       <c r="H34" t="s">
-        <v>340</v>
+        <v>317</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
@@ -2369,7 +2306,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="C35" t="s">
         <v>87</v>
@@ -2387,7 +2324,7 @@
         <v>87</v>
       </c>
       <c r="H35" t="s">
-        <v>341</v>
+        <v>318</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
@@ -2395,7 +2332,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C36" t="s">
         <v>88</v>
@@ -2410,10 +2347,10 @@
         <v>103</v>
       </c>
       <c r="G36" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="H36" t="s">
-        <v>358</v>
+        <v>335</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
@@ -2421,7 +2358,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C37" t="s">
         <v>88</v>
@@ -2436,10 +2373,10 @@
         <v>103</v>
       </c>
       <c r="G37" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="H37" t="s">
-        <v>358</v>
+        <v>335</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
@@ -2447,7 +2384,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C38" t="s">
         <v>83</v>
@@ -2462,10 +2399,10 @@
         <v>103</v>
       </c>
       <c r="G38" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="H38" t="s">
-        <v>358</v>
+        <v>335</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
@@ -2473,7 +2410,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C39" t="s">
         <v>81</v>
@@ -2488,10 +2425,10 @@
         <v>103</v>
       </c>
       <c r="G39" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="H39" t="s">
-        <v>358</v>
+        <v>335</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
@@ -2499,7 +2436,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C40" t="s">
         <v>83</v>
@@ -2514,10 +2451,10 @@
         <v>103</v>
       </c>
       <c r="G40" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="H40" t="s">
-        <v>358</v>
+        <v>335</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
@@ -2525,7 +2462,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C41" t="s">
         <v>80</v>
@@ -2540,10 +2477,10 @@
         <v>103</v>
       </c>
       <c r="G41" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="H41" t="s">
-        <v>358</v>
+        <v>335</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
@@ -2551,7 +2488,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C42" t="s">
         <v>81</v>
@@ -2569,7 +2506,7 @@
         <v>81</v>
       </c>
       <c r="H42" t="s">
-        <v>358</v>
+        <v>335</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
@@ -2577,7 +2514,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="C43" t="s">
         <v>86</v>
@@ -2592,10 +2529,10 @@
         <v>103</v>
       </c>
       <c r="G43" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="H43" t="s">
-        <v>343</v>
+        <v>320</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
@@ -2603,7 +2540,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="C44" t="s">
         <v>86</v>
@@ -2618,10 +2555,10 @@
         <v>103</v>
       </c>
       <c r="G44" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="H44" t="s">
-        <v>357</v>
+        <v>334</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
@@ -2629,7 +2566,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="C45" t="s">
         <v>86</v>
@@ -2644,10 +2581,10 @@
         <v>104</v>
       </c>
       <c r="G45" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="H45" t="s">
-        <v>343</v>
+        <v>320</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
@@ -2655,7 +2592,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="C46" t="s">
         <v>87</v>
@@ -2673,7 +2610,7 @@
         <v>87</v>
       </c>
       <c r="H46" t="s">
-        <v>357</v>
+        <v>334</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
@@ -2681,7 +2618,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="C47" t="s">
         <v>87</v>
@@ -2699,7 +2636,7 @@
         <v>87</v>
       </c>
       <c r="H47" t="s">
-        <v>343</v>
+        <v>320</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
@@ -2707,7 +2644,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="C48" t="s">
         <v>87</v>
@@ -2725,7 +2662,7 @@
         <v>87</v>
       </c>
       <c r="H48" t="s">
-        <v>343</v>
+        <v>320</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
@@ -2733,7 +2670,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C49" t="s">
         <v>85</v>
@@ -2748,7 +2685,7 @@
         <v>85</v>
       </c>
       <c r="H49" t="s">
-        <v>358</v>
+        <v>335</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
@@ -2756,7 +2693,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C50" t="s">
         <v>88</v>
@@ -2771,18 +2708,18 @@
         <v>103</v>
       </c>
       <c r="G50" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="H50" t="s">
-        <v>358</v>
+        <v>335</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>351</v>
+        <v>328</v>
       </c>
       <c r="B51" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="C51" t="s">
         <v>87</v>
@@ -2800,15 +2737,15 @@
         <v>87</v>
       </c>
       <c r="H51" t="s">
-        <v>343</v>
+        <v>320</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>352</v>
+        <v>329</v>
       </c>
       <c r="B52" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="C52" t="s">
         <v>85</v>
@@ -2823,18 +2760,18 @@
         <v>104</v>
       </c>
       <c r="G52" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="H52" t="s">
-        <v>357</v>
+        <v>334</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>353</v>
+        <v>330</v>
       </c>
       <c r="B53" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="C53" t="s">
         <v>85</v>
@@ -2849,18 +2786,18 @@
         <v>104</v>
       </c>
       <c r="G53" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="H53" t="s">
-        <v>343</v>
+        <v>320</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>354</v>
+        <v>331</v>
       </c>
       <c r="B54" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="C54" t="s">
         <v>85</v>
@@ -2875,18 +2812,18 @@
         <v>104</v>
       </c>
       <c r="G54" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="H54" t="s">
-        <v>343</v>
+        <v>320</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>355</v>
+        <v>332</v>
       </c>
       <c r="B55" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="C55" t="s">
         <v>85</v>
@@ -2901,18 +2838,18 @@
         <v>104</v>
       </c>
       <c r="G55" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="H55" t="s">
-        <v>343</v>
+        <v>320</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>356</v>
+        <v>333</v>
       </c>
       <c r="B56" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C56" t="s">
         <v>85</v>
@@ -2927,10 +2864,10 @@
         <v>103</v>
       </c>
       <c r="G56" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="H56" t="s">
-        <v>358</v>
+        <v>335</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
@@ -2938,7 +2875,7 @@
         <v>50</v>
       </c>
       <c r="B57" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C57" t="s">
         <v>86</v>
@@ -2953,10 +2890,10 @@
         <v>102</v>
       </c>
       <c r="G57" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="H57" t="s">
-        <v>342</v>
+        <v>319</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
@@ -2964,7 +2901,7 @@
         <v>51</v>
       </c>
       <c r="B58" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C58" t="s">
         <v>87</v>
@@ -2982,7 +2919,7 @@
         <v>87</v>
       </c>
       <c r="H58" t="s">
-        <v>342</v>
+        <v>319</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
@@ -2990,7 +2927,7 @@
         <v>52</v>
       </c>
       <c r="B59" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C59" t="s">
         <v>80</v>
@@ -3005,10 +2942,10 @@
         <v>102</v>
       </c>
       <c r="G59" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="H59" t="s">
-        <v>342</v>
+        <v>319</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
@@ -3016,7 +2953,7 @@
         <v>53</v>
       </c>
       <c r="B60" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C60" t="s">
         <v>87</v>
@@ -3034,7 +2971,7 @@
         <v>87</v>
       </c>
       <c r="H60" t="s">
-        <v>342</v>
+        <v>319</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
@@ -3042,7 +2979,7 @@
         <v>54</v>
       </c>
       <c r="B61" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C61" t="s">
         <v>87</v>
@@ -3060,7 +2997,7 @@
         <v>87</v>
       </c>
       <c r="H61" t="s">
-        <v>342</v>
+        <v>319</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
@@ -3068,7 +3005,7 @@
         <v>55</v>
       </c>
       <c r="B62" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C62" t="s">
         <v>88</v>
@@ -3083,10 +3020,10 @@
         <v>102</v>
       </c>
       <c r="G62" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="H62" t="s">
-        <v>342</v>
+        <v>319</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
@@ -3094,7 +3031,7 @@
         <v>56</v>
       </c>
       <c r="B63" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C63" t="s">
         <v>82</v>
@@ -3112,7 +3049,7 @@
         <v>82</v>
       </c>
       <c r="H63" t="s">
-        <v>342</v>
+        <v>319</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
@@ -3120,7 +3057,7 @@
         <v>57</v>
       </c>
       <c r="B64" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C64" t="s">
         <v>87</v>
@@ -3138,7 +3075,7 @@
         <v>87</v>
       </c>
       <c r="H64" t="s">
-        <v>342</v>
+        <v>319</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
@@ -3146,7 +3083,7 @@
         <v>58</v>
       </c>
       <c r="B65" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C65" t="s">
         <v>87</v>
@@ -3164,7 +3101,7 @@
         <v>87</v>
       </c>
       <c r="H65" t="s">
-        <v>342</v>
+        <v>319</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
@@ -3172,7 +3109,7 @@
         <v>59</v>
       </c>
       <c r="B66" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C66" t="s">
         <v>87</v>
@@ -3190,7 +3127,7 @@
         <v>87</v>
       </c>
       <c r="H66" t="s">
-        <v>342</v>
+        <v>319</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
@@ -3198,7 +3135,7 @@
         <v>60</v>
       </c>
       <c r="B67" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C67" t="s">
         <v>85</v>
@@ -3213,10 +3150,10 @@
         <v>102</v>
       </c>
       <c r="G67" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="H67" t="s">
-        <v>342</v>
+        <v>319</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
@@ -3224,7 +3161,7 @@
         <v>61</v>
       </c>
       <c r="B68" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C68" t="s">
         <v>87</v>
@@ -3242,7 +3179,7 @@
         <v>87</v>
       </c>
       <c r="H68" t="s">
-        <v>342</v>
+        <v>319</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
@@ -3250,7 +3187,7 @@
         <v>62</v>
       </c>
       <c r="B69" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C69" t="s">
         <v>87</v>
@@ -3268,7 +3205,7 @@
         <v>87</v>
       </c>
       <c r="H69" t="s">
-        <v>342</v>
+        <v>319</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
@@ -3276,7 +3213,7 @@
         <v>63</v>
       </c>
       <c r="B70" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C70" t="s">
         <v>87</v>
@@ -3294,7 +3231,7 @@
         <v>87</v>
       </c>
       <c r="H70" t="s">
-        <v>342</v>
+        <v>319</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
@@ -3302,7 +3239,7 @@
         <v>64</v>
       </c>
       <c r="B71" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C71" t="s">
         <v>87</v>
@@ -3320,7 +3257,7 @@
         <v>87</v>
       </c>
       <c r="H71" t="s">
-        <v>342</v>
+        <v>319</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
@@ -3328,7 +3265,7 @@
         <v>65</v>
       </c>
       <c r="B72" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C72" t="s">
         <v>82</v>
@@ -3346,7 +3283,7 @@
         <v>82</v>
       </c>
       <c r="H72" t="s">
-        <v>342</v>
+        <v>319</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
@@ -3354,7 +3291,7 @@
         <v>66</v>
       </c>
       <c r="B73" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C73" t="s">
         <v>87</v>
@@ -3372,7 +3309,7 @@
         <v>87</v>
       </c>
       <c r="H73" t="s">
-        <v>342</v>
+        <v>319</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
@@ -3380,7 +3317,7 @@
         <v>67</v>
       </c>
       <c r="B74" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C74" t="s">
         <v>81</v>
@@ -3395,10 +3332,10 @@
         <v>102</v>
       </c>
       <c r="G74" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="H74" t="s">
-        <v>342</v>
+        <v>319</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
@@ -3406,7 +3343,7 @@
         <v>68</v>
       </c>
       <c r="B75" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C75" t="s">
         <v>89</v>
@@ -3421,10 +3358,10 @@
         <v>102</v>
       </c>
       <c r="G75" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="H75" t="s">
-        <v>342</v>
+        <v>319</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
@@ -3432,7 +3369,7 @@
         <v>69</v>
       </c>
       <c r="B76" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C76" t="s">
         <v>87</v>
@@ -3450,7 +3387,7 @@
         <v>87</v>
       </c>
       <c r="H76" t="s">
-        <v>342</v>
+        <v>319</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
@@ -3458,7 +3395,7 @@
         <v>70</v>
       </c>
       <c r="B77" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C77" t="s">
         <v>87</v>
@@ -3476,7 +3413,7 @@
         <v>87</v>
       </c>
       <c r="H77" t="s">
-        <v>342</v>
+        <v>319</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
@@ -3484,7 +3421,7 @@
         <v>71</v>
       </c>
       <c r="B78" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C78" t="s">
         <v>90</v>
@@ -3499,10 +3436,10 @@
         <v>102</v>
       </c>
       <c r="G78" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="H78" t="s">
-        <v>342</v>
+        <v>319</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
@@ -3510,7 +3447,7 @@
         <v>72</v>
       </c>
       <c r="B79" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C79" t="s">
         <v>87</v>
@@ -3528,7 +3465,7 @@
         <v>87</v>
       </c>
       <c r="H79" t="s">
-        <v>342</v>
+        <v>319</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
@@ -3536,7 +3473,7 @@
         <v>73</v>
       </c>
       <c r="B80" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C80" t="s">
         <v>79</v>
@@ -3551,10 +3488,10 @@
         <v>102</v>
       </c>
       <c r="G80" t="s">
-        <v>105</v>
+        <v>79</v>
       </c>
       <c r="H80" t="s">
-        <v>342</v>
+        <v>319</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
@@ -3562,7 +3499,7 @@
         <v>74</v>
       </c>
       <c r="B81" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C81" t="s">
         <v>80</v>
@@ -3577,10 +3514,10 @@
         <v>102</v>
       </c>
       <c r="G81" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="H81" t="s">
-        <v>342</v>
+        <v>319</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
@@ -3588,7 +3525,7 @@
         <v>75</v>
       </c>
       <c r="B82" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C82" t="s">
         <v>82</v>
@@ -3606,7 +3543,7 @@
         <v>82</v>
       </c>
       <c r="H82" t="s">
-        <v>342</v>
+        <v>319</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
@@ -3614,7 +3551,7 @@
         <v>76</v>
       </c>
       <c r="B83" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C83" t="s">
         <v>80</v>
@@ -3629,10 +3566,10 @@
         <v>102</v>
       </c>
       <c r="G83" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="H83" t="s">
-        <v>342</v>
+        <v>319</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
@@ -3640,7 +3577,7 @@
         <v>77</v>
       </c>
       <c r="B84" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C84" t="s">
         <v>87</v>
@@ -3658,21 +3595,21 @@
         <v>87</v>
       </c>
       <c r="H84" t="s">
-        <v>342</v>
+        <v>319</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="B85" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C85" t="s">
         <v>83</v>
       </c>
       <c r="D85" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="E85" t="s">
         <v>96</v>
@@ -3681,24 +3618,24 @@
         <v>102</v>
       </c>
       <c r="G85" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="H85" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="B86" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="C86" t="s">
         <v>83</v>
       </c>
       <c r="D86" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="E86" t="s">
         <v>96</v>
@@ -3707,24 +3644,24 @@
         <v>102</v>
       </c>
       <c r="G86" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="H86" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="B87" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C87" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="D87" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="E87" t="s">
         <v>95</v>
@@ -3736,21 +3673,21 @@
         <v>82</v>
       </c>
       <c r="H87" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="B88" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C88" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="D88" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="E88" t="s">
         <v>95</v>
@@ -3759,24 +3696,24 @@
         <v>102</v>
       </c>
       <c r="G88" t="s">
-        <v>328</v>
+        <v>119</v>
       </c>
       <c r="H88" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="B89" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C89" t="s">
         <v>80</v>
       </c>
       <c r="D89" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="E89" t="s">
         <v>96</v>
@@ -3785,24 +3722,24 @@
         <v>102</v>
       </c>
       <c r="G89" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="H89" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="B90" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C90" t="s">
         <v>87</v>
       </c>
       <c r="D90" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="F90" t="s">
         <v>102</v>
@@ -3811,21 +3748,21 @@
         <v>87</v>
       </c>
       <c r="H90" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="B91" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C91" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="D91" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="F91" t="s">
         <v>102</v>
@@ -3834,21 +3771,21 @@
         <v>82</v>
       </c>
       <c r="H91" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="B92" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C92" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="D92" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="E92" t="s">
         <v>95</v>
@@ -3857,24 +3794,24 @@
         <v>102</v>
       </c>
       <c r="G92" t="s">
-        <v>328</v>
+        <v>119</v>
       </c>
       <c r="H92" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="B93" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C93" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="D93" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="F93" t="s">
         <v>102</v>
@@ -3883,21 +3820,21 @@
         <v>82</v>
       </c>
       <c r="H93" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="B94" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C94" t="s">
         <v>87</v>
       </c>
       <c r="D94" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="F94" t="s">
         <v>102</v>
@@ -3906,21 +3843,21 @@
         <v>87</v>
       </c>
       <c r="H94" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="B95" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C95" t="s">
         <v>87</v>
       </c>
       <c r="D95" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="F95" t="s">
         <v>102</v>
@@ -3929,21 +3866,21 @@
         <v>87</v>
       </c>
       <c r="H95" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="B96" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C96" t="s">
         <v>86</v>
       </c>
       <c r="D96" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="E96" t="s">
         <v>95</v>
@@ -3952,24 +3889,24 @@
         <v>102</v>
       </c>
       <c r="G96" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="H96" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="B97" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C97" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="D97" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="E97" t="s">
         <v>96</v>
@@ -3978,24 +3915,24 @@
         <v>102</v>
       </c>
       <c r="G97" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="H97" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="B98" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C98" t="s">
         <v>84</v>
       </c>
       <c r="D98" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="E98" t="s">
         <v>96</v>
@@ -4004,24 +3941,24 @@
         <v>102</v>
       </c>
       <c r="G98" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="H98" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="B99" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C99" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="D99" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="E99" t="s">
         <v>95</v>
@@ -4030,24 +3967,24 @@
         <v>102</v>
       </c>
       <c r="G99" t="s">
-        <v>328</v>
+        <v>119</v>
       </c>
       <c r="H99" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="B100" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C100" t="s">
         <v>85</v>
       </c>
       <c r="D100" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="E100" t="s">
         <v>96</v>
@@ -4056,24 +3993,24 @@
         <v>102</v>
       </c>
       <c r="G100" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="H100" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="B101" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C101" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="D101" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="E101" t="s">
         <v>95</v>
@@ -4082,24 +4019,24 @@
         <v>102</v>
       </c>
       <c r="G101" t="s">
-        <v>329</v>
+        <v>135</v>
       </c>
       <c r="H101" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="B102" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="C102" t="s">
         <v>80</v>
       </c>
       <c r="D102" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="E102" t="s">
         <v>96</v>
@@ -4108,24 +4045,24 @@
         <v>102</v>
       </c>
       <c r="G102" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="H102" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="B103" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C103" t="s">
         <v>85</v>
       </c>
       <c r="D103" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="E103" t="s">
         <v>96</v>
@@ -4134,24 +4071,24 @@
         <v>102</v>
       </c>
       <c r="G103" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="H103" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="B104" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C104" t="s">
         <v>83</v>
       </c>
       <c r="D104" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="E104" t="s">
         <v>96</v>
@@ -4160,24 +4097,24 @@
         <v>102</v>
       </c>
       <c r="G104" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="H104" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="B105" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C105" t="s">
         <v>87</v>
       </c>
       <c r="D105" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="F105" t="s">
         <v>102</v>
@@ -4186,21 +4123,21 @@
         <v>87</v>
       </c>
       <c r="H105" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="B106" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C106" t="s">
         <v>85</v>
       </c>
       <c r="D106" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="E106" t="s">
         <v>96</v>
@@ -4209,24 +4146,24 @@
         <v>102</v>
       </c>
       <c r="G106" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="H106" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="B107" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C107" t="s">
         <v>80</v>
       </c>
       <c r="D107" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="E107" t="s">
         <v>95</v>
@@ -4235,24 +4172,24 @@
         <v>102</v>
       </c>
       <c r="G107" t="s">
-        <v>330</v>
+        <v>80</v>
       </c>
       <c r="H107" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="B108" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C108" t="s">
         <v>85</v>
       </c>
       <c r="D108" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="E108" t="s">
         <v>96</v>
@@ -4261,24 +4198,24 @@
         <v>102</v>
       </c>
       <c r="G108" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="H108" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="B109" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C109" t="s">
         <v>80</v>
       </c>
       <c r="D109" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="E109" t="s">
         <v>96</v>
@@ -4287,24 +4224,24 @@
         <v>102</v>
       </c>
       <c r="G109" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="H109" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="B110" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C110" t="s">
         <v>87</v>
       </c>
       <c r="D110" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="F110" t="s">
         <v>102</v>
@@ -4313,21 +4250,21 @@
         <v>87</v>
       </c>
       <c r="H110" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="B111" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C111" t="s">
         <v>86</v>
       </c>
       <c r="D111" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="E111" t="s">
         <v>95</v>
@@ -4336,24 +4273,24 @@
         <v>102</v>
       </c>
       <c r="G111" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="H111" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="B112" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C112" t="s">
         <v>80</v>
       </c>
       <c r="D112" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="E112" t="s">
         <v>96</v>
@@ -4362,24 +4299,24 @@
         <v>102</v>
       </c>
       <c r="G112" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="H112" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="B113" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C113" t="s">
         <v>87</v>
       </c>
       <c r="D113" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="F113" t="s">
         <v>102</v>
@@ -4388,21 +4325,21 @@
         <v>87</v>
       </c>
       <c r="H113" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="B114" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C114" t="s">
         <v>87</v>
       </c>
       <c r="D114" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="F114" t="s">
         <v>102</v>
@@ -4411,44 +4348,44 @@
         <v>87</v>
       </c>
       <c r="H114" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="B115" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C115" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="D115" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="F115" t="s">
         <v>102</v>
       </c>
       <c r="G115" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="H115" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="B116" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C116" t="s">
         <v>87</v>
       </c>
       <c r="D116" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="F116" t="s">
         <v>102</v>
@@ -4457,21 +4394,21 @@
         <v>87</v>
       </c>
       <c r="H116" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="B117" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C117" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="D117" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="E117" t="s">
         <v>95</v>
@@ -4480,24 +4417,24 @@
         <v>102</v>
       </c>
       <c r="G117" t="s">
-        <v>331</v>
+        <v>153</v>
       </c>
       <c r="H117" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="B118" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C118" t="s">
         <v>87</v>
       </c>
       <c r="D118" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="F118" t="s">
         <v>102</v>
@@ -4506,21 +4443,21 @@
         <v>87</v>
       </c>
       <c r="H118" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="B119" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C119" t="s">
         <v>85</v>
       </c>
       <c r="D119" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="E119" t="s">
         <v>96</v>
@@ -4529,24 +4466,24 @@
         <v>102</v>
       </c>
       <c r="G119" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="H119" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="B120" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C120" t="s">
         <v>87</v>
       </c>
       <c r="D120" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="F120" t="s">
         <v>102</v>
@@ -4555,21 +4492,21 @@
         <v>87</v>
       </c>
       <c r="H120" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="B121" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C121" t="s">
         <v>87</v>
       </c>
       <c r="D121" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="F121" t="s">
         <v>102</v>
@@ -4578,21 +4515,21 @@
         <v>87</v>
       </c>
       <c r="H121" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="B122" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C122" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="D122" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="F122" t="s">
         <v>102</v>
@@ -4601,21 +4538,21 @@
         <v>82</v>
       </c>
       <c r="H122" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="B123" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C123" t="s">
         <v>87</v>
       </c>
       <c r="D123" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="F123" t="s">
         <v>102</v>
@@ -4624,21 +4561,21 @@
         <v>87</v>
       </c>
       <c r="H123" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="B124" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C124" t="s">
         <v>86</v>
       </c>
       <c r="D124" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="E124" t="s">
         <v>96</v>
@@ -4647,24 +4584,24 @@
         <v>102</v>
       </c>
       <c r="G124" t="s">
-        <v>324</v>
+        <v>86</v>
       </c>
       <c r="H124" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="B125" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C125" t="s">
         <v>87</v>
       </c>
       <c r="D125" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="F125" t="s">
         <v>102</v>
@@ -4673,21 +4610,21 @@
         <v>87</v>
       </c>
       <c r="H125" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="B126" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C126" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="D126" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="E126" t="s">
         <v>95</v>
@@ -4696,24 +4633,24 @@
         <v>102</v>
       </c>
       <c r="G126" t="s">
-        <v>328</v>
+        <v>119</v>
       </c>
       <c r="H126" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="B127" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C127" t="s">
         <v>80</v>
       </c>
       <c r="D127" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="E127" t="s">
         <v>95</v>
@@ -4722,24 +4659,24 @@
         <v>102</v>
       </c>
       <c r="G127" t="s">
-        <v>330</v>
+        <v>80</v>
       </c>
       <c r="H127" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="B128" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C128" t="s">
         <v>87</v>
       </c>
       <c r="D128" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="F128" t="s">
         <v>102</v>
@@ -4748,21 +4685,21 @@
         <v>87</v>
       </c>
       <c r="H128" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="B129" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C129" t="s">
         <v>85</v>
       </c>
       <c r="D129" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="E129" t="s">
         <v>96</v>
@@ -4771,24 +4708,24 @@
         <v>102</v>
       </c>
       <c r="G129" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="H129" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="B130" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C130" t="s">
         <v>87</v>
       </c>
       <c r="D130" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="F130" t="s">
         <v>102</v>
@@ -4797,21 +4734,21 @@
         <v>87</v>
       </c>
       <c r="H130" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="B131" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C131" t="s">
         <v>87</v>
       </c>
       <c r="D131" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="F131" t="s">
         <v>102</v>
@@ -4820,21 +4757,21 @@
         <v>87</v>
       </c>
       <c r="H131" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="B132" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C132" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="D132" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="E132" t="s">
         <v>95</v>
@@ -4843,24 +4780,24 @@
         <v>102</v>
       </c>
       <c r="G132" t="s">
-        <v>332</v>
+        <v>169</v>
       </c>
       <c r="H132" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="B133" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C133" t="s">
         <v>86</v>
       </c>
       <c r="D133" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="E133" t="s">
         <v>95</v>
@@ -4869,24 +4806,24 @@
         <v>102</v>
       </c>
       <c r="G133" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="H133" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="B134" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C134" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="D134" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="E134" t="s">
         <v>95</v>
@@ -4895,24 +4832,24 @@
         <v>102</v>
       </c>
       <c r="G134" t="s">
-        <v>328</v>
+        <v>119</v>
       </c>
       <c r="H134" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="B135" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C135" t="s">
         <v>87</v>
       </c>
       <c r="D135" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="F135" t="s">
         <v>102</v>
@@ -4921,21 +4858,21 @@
         <v>87</v>
       </c>
       <c r="H135" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="B136" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C136" t="s">
         <v>81</v>
       </c>
       <c r="D136" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="E136" t="s">
         <v>95</v>
@@ -4944,24 +4881,24 @@
         <v>102</v>
       </c>
       <c r="G136" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="H136" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="B137" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C137" t="s">
         <v>85</v>
       </c>
       <c r="D137" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="E137" t="s">
         <v>96</v>
@@ -4970,24 +4907,24 @@
         <v>102</v>
       </c>
       <c r="G137" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="H137" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="B138" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C138" t="s">
         <v>87</v>
       </c>
       <c r="D138" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="F138" t="s">
         <v>102</v>
@@ -4996,21 +4933,21 @@
         <v>87</v>
       </c>
       <c r="H138" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="B139" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C139" t="s">
         <v>83</v>
       </c>
       <c r="D139" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="E139" t="s">
         <v>95</v>
@@ -5019,24 +4956,24 @@
         <v>102</v>
       </c>
       <c r="G139" t="s">
-        <v>333</v>
+        <v>83</v>
       </c>
       <c r="H139" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="B140" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C140" t="s">
         <v>81</v>
       </c>
       <c r="D140" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="E140" t="s">
         <v>95</v>
@@ -5045,24 +4982,24 @@
         <v>102</v>
       </c>
       <c r="G140" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="H140" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="B141" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C141" t="s">
         <v>83</v>
       </c>
       <c r="D141" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="E141" t="s">
         <v>95</v>
@@ -5071,47 +5008,47 @@
         <v>102</v>
       </c>
       <c r="G141" t="s">
-        <v>333</v>
+        <v>83</v>
       </c>
       <c r="H141" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="B142" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C142" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="D142" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="F142" t="s">
         <v>102</v>
       </c>
       <c r="G142" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="H142" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="B143" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C143" t="s">
         <v>87</v>
       </c>
       <c r="D143" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="F143" t="s">
         <v>102</v>
@@ -5120,21 +5057,21 @@
         <v>87</v>
       </c>
       <c r="H143" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="B144" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C144" t="s">
         <v>87</v>
       </c>
       <c r="D144" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="F144" t="s">
         <v>102</v>
@@ -5143,21 +5080,21 @@
         <v>87</v>
       </c>
       <c r="H144" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="B145" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C145" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="D145" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="E145" t="s">
         <v>95</v>
@@ -5166,24 +5103,24 @@
         <v>102</v>
       </c>
       <c r="G145" t="s">
-        <v>334</v>
+        <v>184</v>
       </c>
       <c r="H145" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="B146" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C146" t="s">
         <v>81</v>
       </c>
       <c r="D146" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="E146" t="s">
         <v>95</v>
@@ -5192,24 +5129,24 @@
         <v>102</v>
       </c>
       <c r="G146" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="H146" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="B147" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C147" t="s">
         <v>87</v>
       </c>
       <c r="D147" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="F147" t="s">
         <v>102</v>
@@ -5218,21 +5155,21 @@
         <v>87</v>
       </c>
       <c r="H147" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="B148" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C148" t="s">
         <v>86</v>
       </c>
       <c r="D148" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="E148" t="s">
         <v>95</v>
@@ -5241,47 +5178,47 @@
         <v>102</v>
       </c>
       <c r="G148" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="H148" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="B149" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C149" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="D149" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="F149" t="s">
         <v>102</v>
       </c>
       <c r="G149" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="H149" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="B150" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C150" t="s">
         <v>87</v>
       </c>
       <c r="D150" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="F150" t="s">
         <v>102</v>
@@ -5290,21 +5227,21 @@
         <v>87</v>
       </c>
       <c r="H150" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="B151" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C151" t="s">
         <v>87</v>
       </c>
       <c r="D151" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="F151" t="s">
         <v>102</v>
@@ -5313,21 +5250,21 @@
         <v>87</v>
       </c>
       <c r="H151" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="B152" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C152" t="s">
         <v>80</v>
       </c>
       <c r="D152" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="E152" t="s">
         <v>95</v>
@@ -5336,24 +5273,24 @@
         <v>102</v>
       </c>
       <c r="G152" t="s">
-        <v>330</v>
+        <v>80</v>
       </c>
       <c r="H152" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="B153" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C153" t="s">
         <v>86</v>
       </c>
       <c r="D153" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="E153" t="s">
         <v>95</v>
@@ -5362,24 +5299,24 @@
         <v>102</v>
       </c>
       <c r="G153" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="H153" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="B154" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C154" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="D154" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="E154" t="s">
         <v>96</v>
@@ -5388,24 +5325,24 @@
         <v>102</v>
       </c>
       <c r="G154" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="H154" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="B155" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C155" t="s">
         <v>79</v>
       </c>
       <c r="D155" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="E155" t="s">
         <v>95</v>
@@ -5414,24 +5351,24 @@
         <v>102</v>
       </c>
       <c r="G155" t="s">
-        <v>105</v>
+        <v>79</v>
       </c>
       <c r="H155" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="B156" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C156" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="D156" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="E156" t="s">
         <v>95</v>
@@ -5440,24 +5377,24 @@
         <v>102</v>
       </c>
       <c r="G156" t="s">
-        <v>332</v>
+        <v>169</v>
       </c>
       <c r="H156" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="B157" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C157" t="s">
         <v>86</v>
       </c>
       <c r="D157" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="E157" t="s">
         <v>95</v>
@@ -5466,24 +5403,24 @@
         <v>102</v>
       </c>
       <c r="G157" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="H157" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="B158" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C158" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="D158" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="F158" t="s">
         <v>102</v>
@@ -5492,18 +5429,18 @@
         <v>82</v>
       </c>
       <c r="H158" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="B159" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="D159" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="F159" t="s">
         <v>102</v>
@@ -5512,21 +5449,21 @@
         <v>82</v>
       </c>
       <c r="H159" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="B160" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C160" t="s">
         <v>86</v>
       </c>
       <c r="D160" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="E160" t="s">
         <v>95</v>
@@ -5535,24 +5472,24 @@
         <v>102</v>
       </c>
       <c r="G160" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="H160" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="B161" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C161" t="s">
         <v>86</v>
       </c>
       <c r="D161" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="E161" t="s">
         <v>95</v>
@@ -5561,24 +5498,24 @@
         <v>102</v>
       </c>
       <c r="G161" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="H161" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="B162" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C162" t="s">
         <v>83</v>
       </c>
       <c r="D162" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="E162" t="s">
         <v>96</v>
@@ -5587,24 +5524,24 @@
         <v>102</v>
       </c>
       <c r="G162" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="H162" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="B163" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C163" t="s">
         <v>83</v>
       </c>
       <c r="D163" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="E163" t="s">
         <v>96</v>
@@ -5613,24 +5550,24 @@
         <v>102</v>
       </c>
       <c r="G163" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="H163" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="B164" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C164" t="s">
         <v>87</v>
       </c>
       <c r="D164" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="F164" t="s">
         <v>102</v>
@@ -5639,21 +5576,21 @@
         <v>87</v>
       </c>
       <c r="H164" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="B165" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C165" t="s">
         <v>81</v>
       </c>
       <c r="D165" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="E165" t="s">
         <v>95</v>
@@ -5662,24 +5599,24 @@
         <v>102</v>
       </c>
       <c r="G165" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="H165" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="B166" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C166" t="s">
         <v>84</v>
       </c>
       <c r="D166" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="E166" t="s">
         <v>96</v>
@@ -5688,24 +5625,24 @@
         <v>102</v>
       </c>
       <c r="G166" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="H166" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="B167" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C167" t="s">
         <v>87</v>
       </c>
       <c r="D167" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="F167" t="s">
         <v>102</v>
@@ -5714,21 +5651,21 @@
         <v>87</v>
       </c>
       <c r="H167" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="B168" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C168" t="s">
         <v>84</v>
       </c>
       <c r="D168" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="E168" t="s">
         <v>96</v>
@@ -5737,24 +5674,24 @@
         <v>102</v>
       </c>
       <c r="G168" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="H168" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="B169" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C169" t="s">
         <v>86</v>
       </c>
       <c r="D169" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="E169" t="s">
         <v>95</v>
@@ -5763,24 +5700,24 @@
         <v>102</v>
       </c>
       <c r="G169" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="H169" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="B170" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C170" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="D170" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="E170" t="s">
         <v>95</v>
@@ -5789,24 +5726,24 @@
         <v>102</v>
       </c>
       <c r="G170" t="s">
-        <v>335</v>
+        <v>82</v>
       </c>
       <c r="H170" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="B171" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C171" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="D171" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="E171" t="s">
         <v>95</v>
@@ -5815,24 +5752,24 @@
         <v>102</v>
       </c>
       <c r="G171" t="s">
-        <v>336</v>
+        <v>214</v>
       </c>
       <c r="H171" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="B172" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C172" t="s">
         <v>86</v>
       </c>
       <c r="D172" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="E172" t="s">
         <v>95</v>
@@ -5841,24 +5778,24 @@
         <v>102</v>
       </c>
       <c r="G172" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="H172" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="B173" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C173" t="s">
         <v>86</v>
       </c>
       <c r="D173" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="E173" t="s">
         <v>95</v>
@@ -5867,24 +5804,24 @@
         <v>102</v>
       </c>
       <c r="G173" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="H173" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="B174" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C174" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="D174" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="E174" t="s">
         <v>95</v>
@@ -5893,24 +5830,24 @@
         <v>102</v>
       </c>
       <c r="G174" t="s">
-        <v>328</v>
+        <v>119</v>
       </c>
       <c r="H174" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="B175" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C175" t="s">
         <v>87</v>
       </c>
       <c r="D175" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="F175" t="s">
         <v>102</v>
@@ -5919,21 +5856,21 @@
         <v>87</v>
       </c>
       <c r="H175" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="B176" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C176" t="s">
         <v>87</v>
       </c>
       <c r="D176" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="F176" t="s">
         <v>102</v>
@@ -5942,21 +5879,21 @@
         <v>87</v>
       </c>
       <c r="H176" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="B177" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C177" t="s">
         <v>80</v>
       </c>
       <c r="D177" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="E177" t="s">
         <v>96</v>
@@ -5965,24 +5902,24 @@
         <v>102</v>
       </c>
       <c r="G177" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="H177" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="B178" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C178" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="D178" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="E178" t="s">
         <v>95</v>
@@ -5991,24 +5928,24 @@
         <v>102</v>
       </c>
       <c r="G178" t="s">
-        <v>328</v>
+        <v>119</v>
       </c>
       <c r="H178" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="B179" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C179" t="s">
         <v>79</v>
       </c>
       <c r="D179" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="E179" t="s">
         <v>95</v>
@@ -6017,24 +5954,24 @@
         <v>102</v>
       </c>
       <c r="G179" t="s">
-        <v>105</v>
+        <v>79</v>
       </c>
       <c r="H179" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="B180" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C180" t="s">
         <v>87</v>
       </c>
       <c r="D180" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="F180" t="s">
         <v>102</v>
@@ -6043,21 +5980,21 @@
         <v>87</v>
       </c>
       <c r="H180" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="B181" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C181" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="D181" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="E181" t="s">
         <v>96</v>
@@ -6066,24 +6003,24 @@
         <v>102</v>
       </c>
       <c r="G181" t="s">
-        <v>325</v>
+        <v>225</v>
       </c>
       <c r="H181" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="B182" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C182" t="s">
         <v>87</v>
       </c>
       <c r="D182" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="F182" t="s">
         <v>102</v>
@@ -6092,21 +6029,21 @@
         <v>87</v>
       </c>
       <c r="H182" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="B183" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C183" t="s">
         <v>86</v>
       </c>
       <c r="D183" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="E183" t="s">
         <v>96</v>
@@ -6115,24 +6052,24 @@
         <v>102</v>
       </c>
       <c r="G183" t="s">
-        <v>324</v>
+        <v>86</v>
       </c>
       <c r="H183" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="B184" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C184" t="s">
         <v>81</v>
       </c>
       <c r="D184" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="E184" t="s">
         <v>95</v>
@@ -6141,24 +6078,24 @@
         <v>102</v>
       </c>
       <c r="G184" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="H184" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="B185" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C185" t="s">
         <v>80</v>
       </c>
       <c r="D185" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="E185" t="s">
         <v>96</v>
@@ -6167,24 +6104,24 @@
         <v>102</v>
       </c>
       <c r="G185" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="H185" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="B186" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C186" t="s">
         <v>87</v>
       </c>
       <c r="D186" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="F186" t="s">
         <v>102</v>
@@ -6193,21 +6130,21 @@
         <v>87</v>
       </c>
       <c r="H186" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="B187" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C187" t="s">
         <v>87</v>
       </c>
       <c r="D187" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="F187" t="s">
         <v>102</v>
@@ -6216,21 +6153,21 @@
         <v>87</v>
       </c>
       <c r="H187" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="B188" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C188" t="s">
         <v>88</v>
       </c>
       <c r="D188" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="E188" t="s">
         <v>96</v>
@@ -6239,24 +6176,24 @@
         <v>102</v>
       </c>
       <c r="G188" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="H188" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="B189" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C189" t="s">
         <v>87</v>
       </c>
       <c r="D189" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="F189" t="s">
         <v>102</v>
@@ -6265,21 +6202,21 @@
         <v>87</v>
       </c>
       <c r="H189" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="B190" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C190" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="D190" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="E190" t="s">
         <v>95</v>
@@ -6288,24 +6225,24 @@
         <v>102</v>
       </c>
       <c r="G190" t="s">
-        <v>328</v>
+        <v>119</v>
       </c>
       <c r="H190" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="B191" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C191" t="s">
         <v>85</v>
       </c>
       <c r="D191" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="E191" t="s">
         <v>96</v>
@@ -6314,24 +6251,24 @@
         <v>102</v>
       </c>
       <c r="G191" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="H191" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="B192" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C192" t="s">
         <v>87</v>
       </c>
       <c r="D192" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="F192" t="s">
         <v>102</v>
@@ -6340,21 +6277,21 @@
         <v>87</v>
       </c>
       <c r="H192" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="B193" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C193" t="s">
         <v>87</v>
       </c>
       <c r="D193" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="F193" t="s">
         <v>102</v>
@@ -6363,21 +6300,21 @@
         <v>87</v>
       </c>
       <c r="H193" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="B194" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C194" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="D194" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="E194" t="s">
         <v>95</v>
@@ -6386,24 +6323,24 @@
         <v>102</v>
       </c>
       <c r="G194" t="s">
-        <v>328</v>
+        <v>119</v>
       </c>
       <c r="H194" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="B195" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C195" t="s">
         <v>83</v>
       </c>
       <c r="D195" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="E195" t="s">
         <v>95</v>
@@ -6412,24 +6349,24 @@
         <v>102</v>
       </c>
       <c r="G195" t="s">
-        <v>333</v>
+        <v>83</v>
       </c>
       <c r="H195" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="B196" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C196" t="s">
         <v>83</v>
       </c>
       <c r="D196" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="E196" t="s">
         <v>96</v>
@@ -6438,24 +6375,24 @@
         <v>102</v>
       </c>
       <c r="G196" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="H196" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="B197" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C197" t="s">
         <v>86</v>
       </c>
       <c r="D197" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="E197" t="s">
         <v>95</v>
@@ -6464,24 +6401,24 @@
         <v>102</v>
       </c>
       <c r="G197" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="H197" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="B198" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C198" t="s">
         <v>86</v>
       </c>
       <c r="D198" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="E198" t="s">
         <v>96</v>
@@ -6490,24 +6427,24 @@
         <v>102</v>
       </c>
       <c r="G198" t="s">
-        <v>324</v>
+        <v>86</v>
       </c>
       <c r="H198" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="B199" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C199" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="D199" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="E199" t="s">
         <v>95</v>
@@ -6516,24 +6453,24 @@
         <v>102</v>
       </c>
       <c r="G199" t="s">
-        <v>328</v>
+        <v>119</v>
       </c>
       <c r="H199" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="B200" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C200" t="s">
         <v>87</v>
       </c>
       <c r="D200" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="F200" t="s">
         <v>102</v>
@@ -6542,21 +6479,21 @@
         <v>87</v>
       </c>
       <c r="H200" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="B201" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C201" t="s">
         <v>87</v>
       </c>
       <c r="D201" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="F201" t="s">
         <v>102</v>
@@ -6565,21 +6502,21 @@
         <v>87</v>
       </c>
       <c r="H201" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="B202" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C202" t="s">
         <v>87</v>
       </c>
       <c r="D202" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="F202" t="s">
         <v>102</v>
@@ -6588,21 +6525,21 @@
         <v>87</v>
       </c>
       <c r="H202" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="B203" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C203" t="s">
         <v>87</v>
       </c>
       <c r="D203" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="F203" t="s">
         <v>102</v>
@@ -6611,21 +6548,21 @@
         <v>87</v>
       </c>
       <c r="H203" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="B204" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C204" t="s">
         <v>81</v>
       </c>
       <c r="D204" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="E204" t="s">
         <v>95</v>
@@ -6634,24 +6571,24 @@
         <v>102</v>
       </c>
       <c r="G204" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="H204" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="B205" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C205" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="D205" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="E205" t="s">
         <v>96</v>
@@ -6660,24 +6597,24 @@
         <v>102</v>
       </c>
       <c r="G205" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="H205" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="B206" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="C206" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="D206" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="E206" t="s">
         <v>95</v>
@@ -6686,24 +6623,24 @@
         <v>102</v>
       </c>
       <c r="G206" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="H206" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="B207" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="C207" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="D207" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="E207" t="s">
         <v>96</v>
@@ -6712,24 +6649,24 @@
         <v>102</v>
       </c>
       <c r="G207" t="s">
-        <v>326</v>
+        <v>184</v>
       </c>
       <c r="H207" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="B208" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C208" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="D208" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="E208" t="s">
         <v>95</v>
@@ -6738,24 +6675,24 @@
         <v>102</v>
       </c>
       <c r="G208" t="s">
-        <v>328</v>
+        <v>119</v>
       </c>
       <c r="H208" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="B209" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C209" t="s">
         <v>83</v>
       </c>
       <c r="D209" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="E209" t="s">
         <v>96</v>
@@ -6764,24 +6701,24 @@
         <v>102</v>
       </c>
       <c r="G209" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="H209" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="B210" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C210" t="s">
         <v>87</v>
       </c>
       <c r="D210" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="F210" t="s">
         <v>102</v>
@@ -6790,21 +6727,21 @@
         <v>87</v>
       </c>
       <c r="H210" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="B211" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C211" t="s">
         <v>86</v>
       </c>
       <c r="D211" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="E211" t="s">
         <v>95</v>
@@ -6813,24 +6750,24 @@
         <v>102</v>
       </c>
       <c r="G211" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="H211" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="B212" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C212" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="D212" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="E212" t="s">
         <v>96</v>
@@ -6839,24 +6776,24 @@
         <v>102</v>
       </c>
       <c r="G212" t="s">
-        <v>327</v>
+        <v>260</v>
       </c>
       <c r="H212" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="B213" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C213" t="s">
         <v>87</v>
       </c>
       <c r="D213" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="F213" t="s">
         <v>102</v>
@@ -6865,21 +6802,21 @@
         <v>87</v>
       </c>
       <c r="H213" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="B214" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C214" t="s">
         <v>87</v>
       </c>
       <c r="D214" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="F214" t="s">
         <v>102</v>
@@ -6888,21 +6825,21 @@
         <v>87</v>
       </c>
       <c r="H214" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="B215" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C215" t="s">
         <v>80</v>
       </c>
       <c r="D215" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="E215" t="s">
         <v>96</v>
@@ -6911,24 +6848,24 @@
         <v>102</v>
       </c>
       <c r="G215" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="H215" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="B216" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C216" t="s">
         <v>83</v>
       </c>
       <c r="D216" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="E216" t="s">
         <v>96</v>
@@ -6937,24 +6874,24 @@
         <v>102</v>
       </c>
       <c r="G216" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="H216" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="B217" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C217" t="s">
         <v>87</v>
       </c>
       <c r="D217" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="F217" t="s">
         <v>102</v>
@@ -6963,21 +6900,21 @@
         <v>87</v>
       </c>
       <c r="H217" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="B218" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C218" t="s">
         <v>83</v>
       </c>
       <c r="D218" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="E218" t="s">
         <v>95</v>
@@ -6986,24 +6923,24 @@
         <v>102</v>
       </c>
       <c r="G218" t="s">
-        <v>333</v>
+        <v>83</v>
       </c>
       <c r="H218" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="B219" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C219" t="s">
         <v>83</v>
       </c>
       <c r="D219" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="E219" t="s">
         <v>96</v>
@@ -7012,24 +6949,24 @@
         <v>102</v>
       </c>
       <c r="G219" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="H219" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="B220" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C220" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="D220" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="E220" t="s">
         <v>95</v>
@@ -7038,24 +6975,24 @@
         <v>102</v>
       </c>
       <c r="G220" t="s">
-        <v>328</v>
+        <v>119</v>
       </c>
       <c r="H220" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="B221" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C221" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="D221" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="E221" t="s">
         <v>95</v>
@@ -7064,24 +7001,24 @@
         <v>102</v>
       </c>
       <c r="G221" t="s">
-        <v>328</v>
+        <v>119</v>
       </c>
       <c r="H221" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="B222" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C222" t="s">
         <v>83</v>
       </c>
       <c r="D222" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="E222" t="s">
         <v>96</v>
@@ -7090,24 +7027,24 @@
         <v>102</v>
       </c>
       <c r="G222" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="H222" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="B223" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C223" t="s">
         <v>83</v>
       </c>
       <c r="D223" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="E223" t="s">
         <v>96</v>
@@ -7116,24 +7053,24 @@
         <v>102</v>
       </c>
       <c r="G223" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="H223" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="B224" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C224" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="D224" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="E224" t="s">
         <v>95</v>
@@ -7142,24 +7079,24 @@
         <v>102</v>
       </c>
       <c r="G224" t="s">
-        <v>337</v>
+        <v>273</v>
       </c>
       <c r="H224" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="B225" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C225" t="s">
         <v>86</v>
       </c>
       <c r="D225" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="E225" t="s">
         <v>96</v>
@@ -7168,24 +7105,24 @@
         <v>102</v>
       </c>
       <c r="G225" t="s">
-        <v>324</v>
+        <v>86</v>
       </c>
       <c r="H225" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="B226" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C226" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="D226" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="F226" t="s">
         <v>102</v>
@@ -7194,21 +7131,21 @@
         <v>82</v>
       </c>
       <c r="H226" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="B227" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C227" t="s">
         <v>87</v>
       </c>
       <c r="D227" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="F227" t="s">
         <v>102</v>
@@ -7217,21 +7154,21 @@
         <v>87</v>
       </c>
       <c r="H227" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="B228" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C228" t="s">
         <v>79</v>
       </c>
       <c r="D228" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="E228" t="s">
         <v>95</v>
@@ -7240,24 +7177,24 @@
         <v>102</v>
       </c>
       <c r="G228" t="s">
-        <v>105</v>
+        <v>79</v>
       </c>
       <c r="H228" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="B229" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C229" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="D229" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="E229" t="s">
         <v>95</v>
@@ -7266,24 +7203,24 @@
         <v>102</v>
       </c>
       <c r="G229" t="s">
-        <v>328</v>
+        <v>119</v>
       </c>
       <c r="H229" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="B230" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C230" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="D230" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="E230" t="s">
         <v>95</v>
@@ -7292,24 +7229,24 @@
         <v>102</v>
       </c>
       <c r="G230" t="s">
-        <v>328</v>
+        <v>119</v>
       </c>
       <c r="H230" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="B231" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C231" t="s">
         <v>85</v>
       </c>
       <c r="D231" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="E231" t="s">
         <v>96</v>
@@ -7318,21 +7255,21 @@
         <v>102</v>
       </c>
       <c r="G231" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="H231" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="B232" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="D232" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="F232" t="s">
         <v>102</v>
@@ -7341,21 +7278,21 @@
         <v>82</v>
       </c>
       <c r="H232" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="B233" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C233" t="s">
         <v>83</v>
       </c>
       <c r="D233" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="E233" t="s">
         <v>95</v>
@@ -7364,24 +7301,24 @@
         <v>102</v>
       </c>
       <c r="G233" t="s">
-        <v>333</v>
+        <v>83</v>
       </c>
       <c r="H233" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="B234" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C234" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="D234" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="F234" t="s">
         <v>102</v>
@@ -7390,21 +7327,21 @@
         <v>82</v>
       </c>
       <c r="H234" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="B235" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C235" t="s">
         <v>81</v>
       </c>
       <c r="D235" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="E235" t="s">
         <v>95</v>
@@ -7413,24 +7350,24 @@
         <v>102</v>
       </c>
       <c r="G235" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="H235" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="B236" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C236" t="s">
         <v>87</v>
       </c>
       <c r="D236" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="F236" t="s">
         <v>102</v>
@@ -7439,21 +7376,21 @@
         <v>87</v>
       </c>
       <c r="H236" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="B237" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C237" t="s">
         <v>87</v>
       </c>
       <c r="D237" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="F237" t="s">
         <v>102</v>
@@ -7462,21 +7399,21 @@
         <v>87</v>
       </c>
       <c r="H237" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="B238" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C238" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="D238" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="E238" t="s">
         <v>96</v>
@@ -7485,24 +7422,24 @@
         <v>102</v>
       </c>
       <c r="G238" t="s">
-        <v>325</v>
+        <v>225</v>
       </c>
       <c r="H238" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="B239" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C239" t="s">
         <v>86</v>
       </c>
       <c r="D239" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="E239" t="s">
         <v>95</v>
@@ -7511,24 +7448,24 @@
         <v>102</v>
       </c>
       <c r="G239" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="H239" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="B240" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C240" t="s">
         <v>83</v>
       </c>
       <c r="D240" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="E240" t="s">
         <v>95</v>
@@ -7537,24 +7474,24 @@
         <v>102</v>
       </c>
       <c r="G240" t="s">
-        <v>333</v>
+        <v>83</v>
       </c>
       <c r="H240" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="B241" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C241" t="s">
         <v>87</v>
       </c>
       <c r="D241" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="F241" t="s">
         <v>102</v>
@@ -7563,21 +7500,21 @@
         <v>87</v>
       </c>
       <c r="H241" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="B242" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C242" t="s">
         <v>87</v>
       </c>
       <c r="D242" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="F242" t="s">
         <v>102</v>
@@ -7586,21 +7523,21 @@
         <v>87</v>
       </c>
       <c r="H242" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="B243" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C243" t="s">
         <v>85</v>
       </c>
       <c r="D243" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="E243" t="s">
         <v>96</v>
@@ -7609,24 +7546,24 @@
         <v>102</v>
       </c>
       <c r="G243" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="H243" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="B244" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C244" t="s">
         <v>87</v>
       </c>
       <c r="D244" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="F244" t="s">
         <v>102</v>
@@ -7635,21 +7572,21 @@
         <v>87</v>
       </c>
       <c r="H244" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="B245" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C245" t="s">
         <v>85</v>
       </c>
       <c r="D245" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="E245" t="s">
         <v>96</v>
@@ -7658,24 +7595,24 @@
         <v>102</v>
       </c>
       <c r="G245" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="H245" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="B246" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C246" t="s">
         <v>87</v>
       </c>
       <c r="D246" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="F246" t="s">
         <v>102</v>
@@ -7684,21 +7621,21 @@
         <v>87</v>
       </c>
       <c r="H246" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="B247" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C247" t="s">
         <v>87</v>
       </c>
       <c r="D247" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="F247" t="s">
         <v>102</v>
@@ -7707,21 +7644,21 @@
         <v>87</v>
       </c>
       <c r="H247" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="B248" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C248" t="s">
         <v>87</v>
       </c>
       <c r="D248" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="F248" t="s">
         <v>102</v>
@@ -7730,21 +7667,21 @@
         <v>87</v>
       </c>
       <c r="H248" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="B249" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C249" t="s">
         <v>87</v>
       </c>
       <c r="D249" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="F249" t="s">
         <v>102</v>
@@ -7753,21 +7690,21 @@
         <v>87</v>
       </c>
       <c r="H249" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="B250" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C250" t="s">
         <v>79</v>
       </c>
       <c r="D250" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="E250" t="s">
         <v>95</v>
@@ -7776,24 +7713,24 @@
         <v>102</v>
       </c>
       <c r="G250" t="s">
-        <v>105</v>
+        <v>79</v>
       </c>
       <c r="H250" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="B251" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C251" t="s">
         <v>86</v>
       </c>
       <c r="D251" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="E251" t="s">
         <v>96</v>
@@ -7802,24 +7739,24 @@
         <v>102</v>
       </c>
       <c r="G251" t="s">
-        <v>324</v>
+        <v>86</v>
       </c>
       <c r="H251" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="B252" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C252" t="s">
         <v>86</v>
       </c>
       <c r="D252" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="E252" t="s">
         <v>95</v>
@@ -7828,24 +7765,24 @@
         <v>102</v>
       </c>
       <c r="G252" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="H252" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="B253" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C253" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="D253" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="E253" t="s">
         <v>95</v>
@@ -7854,24 +7791,24 @@
         <v>102</v>
       </c>
       <c r="G253" t="s">
-        <v>334</v>
+        <v>184</v>
       </c>
       <c r="H253" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="B254" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C254" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="D254" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="E254" t="s">
         <v>95</v>
@@ -7880,24 +7817,24 @@
         <v>102</v>
       </c>
       <c r="G254" t="s">
-        <v>328</v>
+        <v>119</v>
       </c>
       <c r="H254" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="B255" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C255" t="s">
         <v>86</v>
       </c>
       <c r="D255" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="E255" t="s">
         <v>96</v>
@@ -7906,24 +7843,24 @@
         <v>102</v>
       </c>
       <c r="G255" t="s">
-        <v>324</v>
+        <v>86</v>
       </c>
       <c r="H255" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="B256" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C256" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="D256" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="E256" t="s">
         <v>95</v>
@@ -7932,24 +7869,24 @@
         <v>102</v>
       </c>
       <c r="G256" t="s">
-        <v>328</v>
+        <v>119</v>
       </c>
       <c r="H256" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="B257" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C257" t="s">
         <v>86</v>
       </c>
       <c r="D257" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="E257" t="s">
         <v>95</v>
@@ -7958,24 +7895,24 @@
         <v>102</v>
       </c>
       <c r="G257" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="H257" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="B258" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C258" t="s">
         <v>87</v>
       </c>
       <c r="D258" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="F258" t="s">
         <v>102</v>
@@ -7984,21 +7921,21 @@
         <v>87</v>
       </c>
       <c r="H258" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="B259" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C259" t="s">
         <v>81</v>
       </c>
       <c r="D259" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="E259" t="s">
         <v>95</v>
@@ -8007,24 +7944,24 @@
         <v>102</v>
       </c>
       <c r="G259" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="H259" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="B260" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C260" t="s">
         <v>85</v>
       </c>
       <c r="D260" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="E260" t="s">
         <v>96</v>
@@ -8033,24 +7970,24 @@
         <v>102</v>
       </c>
       <c r="G260" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="H260" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="B261" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C261" t="s">
         <v>87</v>
       </c>
       <c r="D261" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="F261" t="s">
         <v>102</v>
@@ -8059,21 +7996,21 @@
         <v>87</v>
       </c>
       <c r="H261" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>345</v>
+        <v>322</v>
       </c>
       <c r="B262" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C262" t="s">
         <v>87</v>
       </c>
       <c r="D262" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="F262" t="s">
         <v>102</v>
@@ -8082,21 +8019,21 @@
         <v>87</v>
       </c>
       <c r="H262" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>346</v>
+        <v>323</v>
       </c>
       <c r="B263" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C263" t="s">
         <v>87</v>
       </c>
       <c r="D263" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="F263" t="s">
         <v>102</v>
@@ -8105,21 +8042,21 @@
         <v>87</v>
       </c>
       <c r="H263" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>347</v>
+        <v>324</v>
       </c>
       <c r="B264" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C264" t="s">
         <v>87</v>
       </c>
       <c r="D264" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="F264" t="s">
         <v>102</v>
@@ -8128,21 +8065,21 @@
         <v>87</v>
       </c>
       <c r="H264" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>348</v>
+        <v>325</v>
       </c>
       <c r="B265" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C265" t="s">
         <v>87</v>
       </c>
       <c r="D265" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="F265" t="s">
         <v>102</v>
@@ -8151,21 +8088,21 @@
         <v>87</v>
       </c>
       <c r="H265" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>349</v>
+        <v>326</v>
       </c>
       <c r="B266" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C266" t="s">
         <v>87</v>
       </c>
       <c r="D266" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="F266" t="s">
         <v>102</v>
@@ -8174,21 +8111,21 @@
         <v>87</v>
       </c>
       <c r="H266" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>350</v>
+        <v>327</v>
       </c>
       <c r="B267" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C267" t="s">
         <v>87</v>
       </c>
       <c r="D267" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="F267" t="s">
         <v>102</v>
@@ -8197,10 +8134,11 @@
         <v>87</v>
       </c>
       <c r="H267" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>